--- a/Mifos Automation Excels/Loan Product/4737-SUBMITFD01JAN2015(AMT5000-PERIOD12MNTH)-APRACT05JAN2015.xlsx
+++ b/Mifos Automation Excels/Loan Product/4737-SUBMITFD01JAN2015(AMT5000-PERIOD12MNTH)-APRACT05JAN2015.xlsx
@@ -148,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,9 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,119 +540,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1">
@@ -652,138 +660,138 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>5000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>4</v>
       </c>
     </row>
